--- a/docs/StructureDefinition-VAInpatientUDMedicationRequestChange.xlsx
+++ b/docs/StructureDefinition-VAInpatientUDMedicationRequestChange.xlsx
@@ -343,7 +343,31 @@
     <t>DomainResource.extension</t>
   </si>
   <si>
-    <t>reference-targetElement/extension/elementUri</t>
+    <t>reference-targetElement-extension-change-extension-oldValue</t>
+  </si>
+  <si>
+    <t>OLD DATA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://va.gov/fhir/us/vha-ampl-ig/StructureDefinition/reference-targetElement.extension.change.extension.oldValue}
+</t>
+  </si>
+  <si>
+    <t>This is the previous data that was in the field that was changed.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1
+</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() | (children().count() &gt; id.count())}
+ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
+  </si>
+  <si>
+    <t>ACTIVITY LOG @OLD DATA 55.09-4</t>
+  </si>
+  <si>
+    <t>reference-targetElement-extension-elementUri</t>
   </si>
   <si>
     <t>FIELD</t>
@@ -356,31 +380,7 @@
     <t>This is field that was changed due to the activity.</t>
   </si>
   <si>
-    <t xml:space="preserve">ele-1
-</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() | (children().count() &gt; id.count())}
-ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
-  </si>
-  <si>
     <t>ACTIVITY LOG @FIELD 55.09-3</t>
-  </si>
-  <si>
-    <t>reference-targetElement/extension/change/extension/oldValue</t>
-  </si>
-  <si>
-    <t>OLD DATA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://va.gov/fhir/us/vha-ampl-ig/StructureDefinition/reference-targetElement.extension.change.extension.oldValue}
-</t>
-  </si>
-  <si>
-    <t>This is the previous data that was in the field that was changed.</t>
-  </si>
-  <si>
-    <t>ACTIVITY LOG @OLD DATA 55.09-4</t>
   </si>
   <si>
     <t>Provenance.modifierExtension</t>
@@ -1153,7 +1153,7 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="34.92578125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="58.86328125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="59.0390625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="10.54296875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
